--- a/PodcastBulkUpload.xlsx
+++ b/PodcastBulkUpload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HusseinMaher\OneDrive - Evolvant Technologies\Documents\Episodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AnchorRobot_MacOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4FB75-6CE8-4B96-A656-8B675248D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAC4451-2D34-4298-A4DB-3711663CF7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{4B76E051-8112-FE4C-804B-0D38B201841F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B76E051-8112-FE4C-804B-0D38B201841F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>E</t>
   </si>
@@ -113,28 +113,13 @@
     <t>In each episode, Paddy deep dives into a new human Superpower and practical advice on how you can apply it immediately.</t>
   </si>
   <si>
-    <t>Episode25.mp4</t>
-  </si>
-  <si>
-    <t>Episode26.mp4</t>
-  </si>
-  <si>
     <t>Omar Zoman</t>
   </si>
   <si>
-    <t>Episode27.mp4</t>
-  </si>
-  <si>
     <t>PM</t>
   </si>
   <si>
-    <t>Episode28.mp4</t>
-  </si>
-  <si>
     <t>Ragab Hamdan</t>
-  </si>
-  <si>
-    <t>Rania Samaan</t>
   </si>
   <si>
     <t>👉 Podcast Website: https://www.superpowers.school/ &lt;br&gt;
@@ -162,25 +147,25 @@
     <t>1 45</t>
   </si>
   <si>
-    <t>8 50</t>
-  </si>
-  <si>
-    <t>Thumb1.jpg</t>
-  </si>
-  <si>
-    <t>Thumb2.jpg</t>
-  </si>
-  <si>
-    <t>Thumb3.jpg</t>
-  </si>
-  <si>
-    <t>Thumb4.jpg</t>
-  </si>
-  <si>
     <t>THUMBNAIL</t>
   </si>
   <si>
-    <t>3 05 2024</t>
+    <t>Episode2.mp4</t>
+  </si>
+  <si>
+    <t>Episode3.mp4</t>
+  </si>
+  <si>
+    <t>Thumb3.jpeg</t>
+  </si>
+  <si>
+    <t>Thumb1.jpeg</t>
+  </si>
+  <si>
+    <t>Thumb2.jpeg</t>
+  </si>
+  <si>
+    <t>Episode1.mp4</t>
   </si>
 </sst>
 </file>
@@ -547,19 +532,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE630C-EC49-0640-AEE4-9F9E473CD4BE}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="47.3125" customWidth="1"/>
-    <col min="9" max="10" width="42.6875" customWidth="1"/>
-    <col min="11" max="11" width="40.8125" customWidth="1"/>
+    <col min="8" max="8" width="47.375" customWidth="1"/>
+    <col min="9" max="10" width="42.75" customWidth="1"/>
+    <col min="11" max="11" width="40.875" customWidth="1"/>
     <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -603,12 +588,12 @@
         <v>16</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="236.25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -638,24 +623,24 @@
         <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="236.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -673,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
@@ -685,24 +670,24 @@
         <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="236.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -720,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>20</v>
@@ -732,67 +717,29 @@
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="236.25" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PodcastBulkUpload.xlsx
+++ b/PodcastBulkUpload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AnchorRobot_MacOs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Freelancing\AnchorFM_Process\AnchorRobot_MacOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAC4451-2D34-4298-A4DB-3711663CF7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7F511-451E-47E7-A78D-DCF2B7363197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B76E051-8112-FE4C-804B-0D38B201841F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>E</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Thumb3.jpeg</t>
-  </si>
-  <si>
-    <t>Thumb1.jpeg</t>
   </si>
   <si>
     <t>Thumb2.jpeg</t>
@@ -532,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE630C-EC49-0640-AEE4-9F9E473CD4BE}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,7 +590,7 @@
     </row>
     <row r="2" spans="1:15" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -634,9 +631,7 @@
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -682,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="236.25" x14ac:dyDescent="0.25">

--- a/PodcastBulkUpload.xlsx
+++ b/PodcastBulkUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Freelancing\AnchorFM_Process\AnchorRobot_MacOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7F511-451E-47E7-A78D-DCF2B7363197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAFFEC0-962D-4943-985C-B235EC8EF9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B76E051-8112-FE4C-804B-0D38B201841F}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE630C-EC49-0640-AEE4-9F9E473CD4BE}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,7 +631,9 @@
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/PodcastBulkUpload.xlsx
+++ b/PodcastBulkUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Freelancing\AnchorFM_Process\AnchorRobot_MacOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAFFEC0-962D-4943-985C-B235EC8EF9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838CA9E5-D3C0-4988-BF28-BEBD0F297D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B76E051-8112-FE4C-804B-0D38B201841F}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE630C-EC49-0640-AEE4-9F9E473CD4BE}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/PodcastBulkUpload.xlsx
+++ b/PodcastBulkUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Freelancing\AnchorFM_Process\AnchorRobot_MacOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838CA9E5-D3C0-4988-BF28-BEBD0F297D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7F511-451E-47E7-A78D-DCF2B7363197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B76E051-8112-FE4C-804B-0D38B201841F}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE630C-EC49-0640-AEE4-9F9E473CD4BE}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,9 +631,7 @@
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/PodcastBulkUpload.xlsx
+++ b/PodcastBulkUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Freelancing\AnchorFM_Process\AnchorRobot_MacOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7F511-451E-47E7-A78D-DCF2B7363197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF3F016-9F97-468F-BC24-A27DCF242B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B76E051-8112-FE4C-804B-0D38B201841F}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE630C-EC49-0640-AEE4-9F9E473CD4BE}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,7 +631,9 @@
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
